--- a/百度热搜/数据库设计.xlsx
+++ b/百度热搜/数据库设计.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20-workspace\myRpository\百度热搜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC2C79-FCE8-4CC0-B2E4-62CA6907637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94120313-315A-45EE-AAAD-9C1E7C87FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="-108" windowWidth="21864" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1284" yWindow="-108" windowWidth="21864" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hot_search_info" sheetId="1" r:id="rId1"/>
+    <sheet name="hot_branch" sheetId="2" r:id="rId2"/>
+    <sheet name="hot_info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +145,42 @@
   </si>
   <si>
     <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot_info_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点信息id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotInfoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creatDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,15 +213,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,14 +250,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,4 +735,318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34891FD7-0F3A-4015-9C9D-A763E7155D3A}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA907E0-55B0-4172-81D7-38E89B080C7D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f t="shared" ref="A3:A8" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/百度热搜/数据库设计.xlsx
+++ b/百度热搜/数据库设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20-workspace\myRpository\百度热搜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21-github仓库\myRpository\百度热搜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94120313-315A-45EE-AAAD-9C1E7C87FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA32EE3-19A4-474D-9A92-66D10E1B168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1284" yWindow="-108" windowWidth="21864" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
